--- a/data/isxod/Workshops_import.xlsx
+++ b/data/isxod/Workshops_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\30.06.24\All КОД\Для БОМ\4\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\furniture_company_system\data\isxod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7574F8F-7F86-492B-BDE9-792B4A76D1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053E2538-7BCE-4B4C-9627-D42B791B8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="1404" windowWidth="22104" windowHeight="11100" xr2:uid="{E8D9F688-E04C-4CB8-8C22-66BEAB4945B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E8D9F688-E04C-4CB8-8C22-66BEAB4945B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshops_import" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -42,9 +45,6 @@
     <t>Тип цеха</t>
   </si>
   <si>
-    <t xml:space="preserve">Количество человек для производства </t>
-  </si>
-  <si>
     <t>Проектный</t>
   </si>
   <si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Упаковки</t>
+  </si>
+  <si>
+    <t>Количество человек для производства</t>
   </si>
 </sst>
 </file>
@@ -447,17 +450,17 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="1" max="1" width="68.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,136 +468,136 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
